--- a/Clean Data Project 3/Excel /Confirmed cases by demographics/Confirm cases dem by age/Dem by age 2023.xlsx
+++ b/Clean Data Project 3/Excel /Confirmed cases by demographics/Confirm cases dem by age/Dem by age 2023.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/plampinstein/utsa/homework/project 3/Clean Data Project 3/Excel /Dem by age/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/plampinstein/utsa/homework/project 3/Data-Analysis---Project-3/Clean Data Project 3/Excel /Confirmed cases by demographics/Confirm cases dem by age/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{75D702CB-F48B-C74E-887A-A4233AEED5F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A7C519C-BADC-2646-9899-39A95EA4DB32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2280" yWindow="2740" windowWidth="26440" windowHeight="15200" xr2:uid="{0EE05D28-26C3-C540-B2DF-C309E94CE06C}"/>
   </bookViews>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
-  <si>
-    <t>Month Year</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>&lt;1</t>
   </si>
@@ -65,35 +62,23 @@
     <t>80+</t>
   </si>
   <si>
-    <t>Unknown</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>January2023</t>
-  </si>
-  <si>
-    <t>February2023</t>
-  </si>
-  <si>
-    <t>March2023</t>
-  </si>
-  <si>
-    <t>April2023</t>
-  </si>
-  <si>
-    <t>Unknown Date 2023</t>
-  </si>
-  <si>
-    <t>Total 2023</t>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>1-9</t>
+  </si>
+  <si>
+    <t>10-19</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="[$-409]mmmm\-yy;@"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -102,17 +87,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -126,40 +102,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -168,16 +116,14 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -492,293 +438,202 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{625D48BF-C2A5-514A-AA8A-DE9A9874CDD0}">
-  <dimension ref="A2:M8"/>
+  <dimension ref="A2:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1">
+        <v>44927</v>
+      </c>
+      <c r="C2" s="1">
+        <v>44958</v>
+      </c>
+      <c r="D2" s="1">
+        <v>44986</v>
+      </c>
+      <c r="E2" s="1">
+        <v>45017</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B3" s="4">
+        <v>2713</v>
+      </c>
+      <c r="C3" s="4">
+        <v>1548</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1071</v>
+      </c>
+      <c r="E3" s="4">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="4">
+        <v>4024</v>
+      </c>
+      <c r="C4" s="4">
+        <v>2461</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1435</v>
+      </c>
+      <c r="E4" s="4">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="4">
+        <v>5378</v>
+      </c>
+      <c r="C5" s="4">
+        <v>3701</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1955</v>
+      </c>
+      <c r="E5" s="4">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3">
-        <v>44935</v>
-      </c>
-      <c r="D2" s="3">
-        <v>45218</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="B6" s="4">
+        <v>9461</v>
+      </c>
+      <c r="C6" s="4">
+        <v>5594</v>
+      </c>
+      <c r="D6" s="4">
+        <v>3271</v>
+      </c>
+      <c r="E6" s="4">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="B7" s="4">
+        <v>10309</v>
+      </c>
+      <c r="C7" s="4">
+        <v>5844</v>
+      </c>
+      <c r="D7" s="4">
+        <v>3468</v>
+      </c>
+      <c r="E7" s="4">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="B8" s="4">
+        <v>9468</v>
+      </c>
+      <c r="C8" s="4">
+        <v>5523</v>
+      </c>
+      <c r="D8" s="4">
+        <v>3217</v>
+      </c>
+      <c r="E8" s="4">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="B9" s="4">
+        <v>10014</v>
+      </c>
+      <c r="C9" s="4">
+        <v>5535</v>
+      </c>
+      <c r="D9" s="4">
+        <v>3356</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="B10" s="4">
+        <v>9901</v>
+      </c>
+      <c r="C10" s="4">
+        <v>5266</v>
+      </c>
+      <c r="D10" s="4">
+        <v>3455</v>
+      </c>
+      <c r="E10" s="4">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="B11" s="4">
+        <v>7973</v>
+      </c>
+      <c r="C11" s="4">
+        <v>4185</v>
+      </c>
+      <c r="D11" s="4">
+        <v>3062</v>
+      </c>
+      <c r="E11" s="4">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3">
-        <v>2713</v>
-      </c>
-      <c r="C3">
-        <v>4024</v>
-      </c>
-      <c r="D3">
-        <v>5378</v>
-      </c>
-      <c r="E3">
-        <v>9461</v>
-      </c>
-      <c r="F3">
-        <v>10309</v>
-      </c>
-      <c r="G3">
-        <v>9468</v>
-      </c>
-      <c r="H3">
-        <v>10014</v>
-      </c>
-      <c r="I3">
-        <v>9901</v>
-      </c>
-      <c r="J3">
-        <v>7973</v>
-      </c>
-      <c r="K3">
+      <c r="B12" s="4">
         <v>5450</v>
       </c>
-      <c r="L3">
-        <v>27</v>
-      </c>
-      <c r="M3">
-        <v>74718</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4">
-        <v>1548</v>
-      </c>
-      <c r="C4">
-        <v>2461</v>
-      </c>
-      <c r="D4">
-        <v>3701</v>
-      </c>
-      <c r="E4">
-        <v>5594</v>
-      </c>
-      <c r="F4">
-        <v>5844</v>
-      </c>
-      <c r="G4">
-        <v>5523</v>
-      </c>
-      <c r="H4">
-        <v>5535</v>
-      </c>
-      <c r="I4">
-        <v>5266</v>
-      </c>
-      <c r="J4">
-        <v>4185</v>
-      </c>
-      <c r="K4">
+      <c r="C12" s="4">
         <v>2959</v>
       </c>
-      <c r="L4">
-        <v>13</v>
-      </c>
-      <c r="M4">
-        <v>42629</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5">
-        <v>1071</v>
-      </c>
-      <c r="C5">
-        <v>1435</v>
-      </c>
-      <c r="D5">
-        <v>1955</v>
-      </c>
-      <c r="E5">
-        <v>3271</v>
-      </c>
-      <c r="F5">
-        <v>3468</v>
-      </c>
-      <c r="G5">
-        <v>3217</v>
-      </c>
-      <c r="H5">
-        <v>3356</v>
-      </c>
-      <c r="I5">
-        <v>3455</v>
-      </c>
-      <c r="J5">
-        <v>3062</v>
-      </c>
-      <c r="K5">
+      <c r="D12" s="4">
         <v>2141</v>
       </c>
-      <c r="L5">
-        <v>6</v>
-      </c>
-      <c r="M5">
-        <v>26437</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6">
-        <v>307</v>
-      </c>
-      <c r="C6">
-        <v>439</v>
-      </c>
-      <c r="D6">
-        <v>675</v>
-      </c>
-      <c r="E6">
-        <v>1283</v>
-      </c>
-      <c r="F6">
-        <v>1325</v>
-      </c>
-      <c r="G6">
-        <v>1144</v>
-      </c>
-      <c r="H6">
-        <v>1160</v>
-      </c>
-      <c r="I6">
-        <v>1170</v>
-      </c>
-      <c r="J6">
-        <v>955</v>
-      </c>
-      <c r="K6">
+      <c r="E12" s="4">
         <v>649</v>
-      </c>
-      <c r="M6">
-        <v>9107</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7">
-        <v>6</v>
-      </c>
-      <c r="C7">
-        <v>30</v>
-      </c>
-      <c r="D7">
-        <v>47</v>
-      </c>
-      <c r="E7">
-        <v>68</v>
-      </c>
-      <c r="F7">
-        <v>67</v>
-      </c>
-      <c r="G7">
-        <v>56</v>
-      </c>
-      <c r="H7">
-        <v>55</v>
-      </c>
-      <c r="I7">
-        <v>39</v>
-      </c>
-      <c r="J7">
-        <v>41</v>
-      </c>
-      <c r="K7">
-        <v>24</v>
-      </c>
-      <c r="M7">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="4">
-        <v>5645</v>
-      </c>
-      <c r="C8" s="4">
-        <v>8389</v>
-      </c>
-      <c r="D8" s="4">
-        <v>11756</v>
-      </c>
-      <c r="E8" s="4">
-        <v>19677</v>
-      </c>
-      <c r="F8" s="4">
-        <v>21013</v>
-      </c>
-      <c r="G8" s="4">
-        <v>19408</v>
-      </c>
-      <c r="H8" s="4">
-        <v>20120</v>
-      </c>
-      <c r="I8" s="4">
-        <v>19831</v>
-      </c>
-      <c r="J8" s="4">
-        <v>16216</v>
-      </c>
-      <c r="K8" s="4">
-        <v>11223</v>
-      </c>
-      <c r="L8" s="4">
-        <v>46</v>
-      </c>
-      <c r="M8" s="4">
-        <v>153324</v>
       </c>
     </row>
   </sheetData>
